--- a/Graphics/planning v2.xlsx
+++ b/Graphics/planning v2.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="51">
   <si>
     <t>Month</t>
   </si>
@@ -149,7 +149,46 @@
     <t>Final data collection</t>
   </si>
   <si>
-    <t>8 Months since start</t>
+    <t>Februari</t>
+  </si>
+  <si>
+    <t>Ultimate deadline defense</t>
+  </si>
+  <si>
+    <t>Approximate target for defense</t>
+  </si>
+  <si>
+    <t>Receive final feedback</t>
+  </si>
+  <si>
+    <t>Submit final report</t>
+  </si>
+  <si>
+    <t>Submit draft for final feedback</t>
+  </si>
+  <si>
+    <t>Receive initial feedback Jari</t>
+  </si>
+  <si>
+    <t>Submit draft for initial feedback</t>
+  </si>
+  <si>
+    <t>Progress meeting 13</t>
+  </si>
+  <si>
+    <t>Make video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While waiting for feedback: </t>
+  </si>
+  <si>
+    <t>work on presentation or video</t>
+  </si>
+  <si>
+    <t>Finish final draft</t>
+  </si>
+  <si>
+    <t>Finish final report</t>
   </si>
 </sst>
 </file>
@@ -195,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -232,18 +271,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -496,7 +529,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="slantDashDot">
+        <color rgb="FF00B0F0"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -504,38 +539,34 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
+      <left/>
+      <right style="slantDashDot">
+        <color rgb="FF00B0F0"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
-      </left>
-      <right style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
+      <left/>
+      <right style="slantDashDot">
+        <color rgb="FF00B0F0"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color theme="7" tint="-0.249977111117893"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="slantDashDot">
-        <color theme="8" tint="-0.249977111117893"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="slantDashDot">
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF00B0F0"/>
       </right>
-      <top style="slantDashDot">
-        <color theme="8" tint="-0.249977111117893"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -543,26 +574,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="slantDashDot">
-        <color theme="8" tint="-0.249977111117893"/>
-      </left>
+      <left/>
       <right style="slantDashDot">
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF00B0F0"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
+      <top style="medium">
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="slantDashDot">
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF00B0F0"/>
       </left>
       <right style="slantDashDot">
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="slantDashDot">
+        <color rgb="FF00B0F0"/>
+      </left>
+      <right style="slantDashDot">
+        <color rgb="FF00B0F0"/>
       </right>
       <top/>
       <bottom/>
@@ -570,14 +610,12 @@
     </border>
     <border>
       <left style="slantDashDot">
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF00B0F0"/>
       </left>
       <right style="slantDashDot">
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF00B0F0"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -585,56 +623,84 @@
     </border>
     <border>
       <left style="slantDashDot">
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF00B0F0"/>
       </left>
       <right style="slantDashDot">
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF00B0F0"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="slantDashDot">
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF00B0F0"/>
       </left>
-      <right style="slantDashDot">
-        <color theme="8" tint="-0.249977111117893"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="slantDashDot">
-        <color theme="8" tint="-0.249977111117893"/>
+        <color rgb="FF00B0F0"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
+      <left style="slantDashDot">
+        <color rgb="FF00B0F0"/>
       </left>
-      <right style="thin">
-        <color theme="1"/>
+      <right style="slantDashDot">
+        <color rgb="FF00B0F0"/>
       </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
+      <top/>
+      <bottom style="slantDashDot">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="slantDashDot">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top/>
+      <bottom style="slantDashDot">
+        <color rgb="FF00B0F0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="slantDashDot">
+        <color rgb="FF00B0F0"/>
+      </right>
+      <top/>
       <bottom style="thin">
-        <color theme="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1"/>
@@ -696,11 +762,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="5"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="6" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="5" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="4" applyBorder="1" applyAlignment="1"/>
@@ -722,9 +784,51 @@
     <xf numFmtId="9" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="5" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="21" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="21" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="16" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="19" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="21" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="35" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="8" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="7" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="6" xfId="4" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="4" borderId="6" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -746,35 +850,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="21" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="19" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="20" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="4" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="4" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="25" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="26" xfId="4" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="27" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="28" xfId="4" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="29" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="30" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="31" xfId="3" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="6">
     <cellStyle name="20% - Accent6" xfId="3" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
-    <cellStyle name="60% - Accent1" xfId="6" builtinId="32"/>
     <cellStyle name="Accent2" xfId="2" builtinId="33"/>
     <cellStyle name="Neutraal" xfId="1" builtinId="28"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1131,64 +1213,64 @@
       <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="58" t="s">
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="56" t="s">
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="58" t="s">
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="56" t="s">
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="58" t="s">
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="56" t="s">
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="58" t="s">
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="60" t="s">
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="95"/>
+      <c r="AL1" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="61"/>
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="93"/>
+      <c r="AO1" s="93"/>
+      <c r="AP1" s="97"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
@@ -2203,12 +2285,12 @@
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
-      <c r="N20" s="62" t="s">
+      <c r="N20" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="98"/>
       <c r="R20" s="23"/>
       <c r="S20" s="23"/>
       <c r="T20" s="23"/>
@@ -2281,64 +2363,64 @@
       <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="58" t="s">
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="56" t="s">
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="58" t="s">
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="93"/>
+      <c r="P1" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="59"/>
-      <c r="T1" s="59"/>
-      <c r="U1" s="56" t="s">
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="95"/>
+      <c r="T1" s="95"/>
+      <c r="U1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
-      <c r="X1" s="57"/>
-      <c r="Y1" s="58" t="s">
+      <c r="V1" s="93"/>
+      <c r="W1" s="93"/>
+      <c r="X1" s="93"/>
+      <c r="Y1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="59"/>
-      <c r="AC1" s="59"/>
-      <c r="AD1" s="56" t="s">
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="95"/>
+      <c r="AC1" s="95"/>
+      <c r="AD1" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="AE1" s="57"/>
-      <c r="AF1" s="57"/>
-      <c r="AG1" s="57"/>
-      <c r="AH1" s="58" t="s">
+      <c r="AE1" s="93"/>
+      <c r="AF1" s="93"/>
+      <c r="AG1" s="93"/>
+      <c r="AH1" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="59"/>
-      <c r="AK1" s="59"/>
-      <c r="AL1" s="60" t="s">
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="95"/>
+      <c r="AK1" s="95"/>
+      <c r="AL1" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="57"/>
-      <c r="AO1" s="57"/>
-      <c r="AP1" s="61"/>
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="93"/>
+      <c r="AO1" s="93"/>
+      <c r="AP1" s="97"/>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
@@ -3353,12 +3435,12 @@
       <c r="K20" s="23"/>
       <c r="L20" s="23"/>
       <c r="M20" s="23"/>
-      <c r="N20" s="62" t="s">
+      <c r="N20" s="98" t="s">
         <v>32</v>
       </c>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="98"/>
       <c r="R20" s="23"/>
       <c r="S20" s="23"/>
       <c r="T20" s="23"/>
@@ -3412,88 +3494,94 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AV24"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AT9" sqref="AT9"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="6" style="50" customWidth="1"/>
+    <col min="2" max="2" width="6" style="46" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="4" max="22" width="2.7109375" hidden="1" customWidth="1"/>
-    <col min="23" max="40" width="2.7109375" customWidth="1"/>
-    <col min="41" max="41" width="4" customWidth="1"/>
-    <col min="42" max="42" width="9.140625" customWidth="1"/>
+    <col min="4" max="27" width="2.7109375" hidden="1" customWidth="1"/>
+    <col min="28" max="44" width="2.7109375" customWidth="1"/>
+    <col min="45" max="45" width="4.140625" customWidth="1"/>
+    <col min="46" max="46" width="3.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A1" s="32"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="58" t="s">
+      <c r="E1" s="42"/>
+      <c r="F1" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="56" t="s">
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="58" t="s">
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="56" t="s">
+      <c r="O1" s="95"/>
+      <c r="P1" s="95"/>
+      <c r="Q1" s="95"/>
+      <c r="R1" s="95"/>
+      <c r="S1" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="58" t="s">
+      <c r="T1" s="93"/>
+      <c r="U1" s="93"/>
+      <c r="V1" s="93"/>
+      <c r="W1" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="59"/>
-      <c r="Y1" s="59"/>
-      <c r="Z1" s="59"/>
-      <c r="AA1" s="59"/>
-      <c r="AB1" s="56" t="s">
+      <c r="X1" s="95"/>
+      <c r="Y1" s="95"/>
+      <c r="Z1" s="95"/>
+      <c r="AA1" s="95"/>
+      <c r="AB1" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="AC1" s="70"/>
-      <c r="AD1" s="57"/>
-      <c r="AE1" s="61"/>
-      <c r="AF1" s="58" t="s">
+      <c r="AC1" s="93"/>
+      <c r="AD1" s="93"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="AG1" s="59"/>
-      <c r="AH1" s="59"/>
-      <c r="AI1" s="59"/>
-      <c r="AJ1" s="60" t="s">
+      <c r="AG1" s="95"/>
+      <c r="AH1" s="95"/>
+      <c r="AI1" s="95"/>
+      <c r="AJ1" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="57"/>
-      <c r="AL1" s="57"/>
-      <c r="AM1" s="57"/>
-      <c r="AN1" s="61"/>
-    </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AK1" s="93"/>
+      <c r="AL1" s="93"/>
+      <c r="AM1" s="93"/>
+      <c r="AN1" s="97"/>
+      <c r="AO1" s="94" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP1" s="95"/>
+      <c r="AQ1" s="95"/>
+      <c r="AR1" s="99"/>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A2" s="33"/>
-      <c r="B2" s="47"/>
+      <c r="B2" s="43"/>
       <c r="C2" s="28" t="s">
         <v>3</v>
       </c>
@@ -3569,16 +3657,16 @@
       <c r="AA2" s="3">
         <v>44865</v>
       </c>
-      <c r="AB2" s="68">
+      <c r="AB2" s="54">
         <v>44872</v>
       </c>
-      <c r="AC2" s="74">
+      <c r="AC2" s="49">
         <v>44879</v>
       </c>
-      <c r="AD2" s="64">
+      <c r="AD2" s="49">
         <v>44886</v>
       </c>
-      <c r="AE2" s="69">
+      <c r="AE2" s="55">
         <v>44893</v>
       </c>
       <c r="AF2" s="4">
@@ -3608,9 +3696,20 @@
       <c r="AN2" s="8">
         <v>44956</v>
       </c>
-      <c r="AO2" s="1"/>
-    </row>
-    <row r="3" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AO2" s="4">
+        <v>44963</v>
+      </c>
+      <c r="AP2" s="3">
+        <v>44970</v>
+      </c>
+      <c r="AQ2" s="3">
+        <v>44977</v>
+      </c>
+      <c r="AR2" s="58">
+        <v>44984</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="34"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29" t="s">
@@ -3673,64 +3772,76 @@
       <c r="V3" s="2">
         <v>19</v>
       </c>
-      <c r="W3" s="55">
+      <c r="W3" s="56">
         <v>20</v>
       </c>
-      <c r="X3" s="54">
+      <c r="X3" s="57">
         <v>21</v>
       </c>
-      <c r="Y3" s="54">
+      <c r="Y3" s="57">
         <v>22</v>
       </c>
-      <c r="Z3" s="54">
+      <c r="Z3" s="57">
         <v>23</v>
       </c>
-      <c r="AA3" s="54">
+      <c r="AA3" s="57">
         <v>24</v>
       </c>
-      <c r="AB3" s="68">
+      <c r="AB3" s="86">
         <v>25</v>
       </c>
-      <c r="AC3" s="75">
+      <c r="AC3" s="87">
         <v>26</v>
       </c>
-      <c r="AD3" s="2">
+      <c r="AD3" s="87">
         <v>27</v>
       </c>
-      <c r="AE3" s="8">
+      <c r="AE3" s="88">
         <v>28</v>
       </c>
-      <c r="AF3" s="4">
+      <c r="AF3" s="89">
         <v>29</v>
       </c>
-      <c r="AG3" s="3">
+      <c r="AG3" s="90">
         <v>30</v>
       </c>
-      <c r="AH3" s="3">
+      <c r="AH3" s="90">
         <v>31</v>
       </c>
-      <c r="AI3" s="3">
+      <c r="AI3" s="90">
         <v>32</v>
       </c>
-      <c r="AJ3" s="7">
+      <c r="AJ3" s="86">
         <v>33</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AK3" s="87">
         <v>34</v>
       </c>
-      <c r="AL3" s="2">
+      <c r="AL3" s="87">
         <v>35</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="AM3" s="87">
         <v>36</v>
       </c>
-      <c r="AN3" s="8">
+      <c r="AN3" s="88">
         <v>37</v>
       </c>
-    </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AO3" s="89">
+        <v>38</v>
+      </c>
+      <c r="AP3" s="90">
+        <v>39</v>
+      </c>
+      <c r="AQ3" s="90">
+        <v>40</v>
+      </c>
+      <c r="AR3" s="91">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A4" s="35"/>
-      <c r="B4" s="48"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="30" t="s">
         <v>18</v>
       </c>
@@ -3759,31 +3870,35 @@
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
       <c r="AB4" s="9"/>
-      <c r="AC4" s="76"/>
+      <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
-      <c r="AE4" s="11"/>
-      <c r="AF4" s="5"/>
-      <c r="AG4" s="6"/>
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="64"/>
+      <c r="AG4" s="64"/>
       <c r="AH4" s="6"/>
       <c r="AI4" s="6"/>
       <c r="AJ4" s="9"/>
-      <c r="AK4" s="10"/>
+      <c r="AK4" s="70"/>
       <c r="AL4" s="10"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="11"/>
-    </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="73"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="64"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="59"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="49">
-        <v>0.99</v>
+      <c r="B5" s="45">
+        <v>1</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="37"/>
-      <c r="E5" s="44"/>
+      <c r="E5" s="40"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
@@ -3807,24 +3922,37 @@
       <c r="Z5" s="6"/>
       <c r="AA5" s="6"/>
       <c r="AB5" s="9"/>
-      <c r="AC5" s="76"/>
+      <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
-      <c r="AE5" s="11"/>
-      <c r="AF5" s="5"/>
-      <c r="AG5" s="6"/>
+      <c r="AE5" s="70"/>
+      <c r="AF5" s="64"/>
+      <c r="AG5" s="64"/>
       <c r="AH5" s="6"/>
       <c r="AI5" s="6"/>
       <c r="AJ5" s="9"/>
-      <c r="AK5" s="10"/>
+      <c r="AK5" s="70"/>
       <c r="AL5" s="10"/>
-      <c r="AM5" s="42"/>
-      <c r="AN5" s="11"/>
-    </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AM5" s="70"/>
+      <c r="AN5" s="73"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="64"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="59"/>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="63">
+        <v>39052</v>
+      </c>
+      <c r="AV5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="49">
+      <c r="B6" s="45">
         <v>1</v>
       </c>
       <c r="C6" s="30" t="s">
@@ -3855,24 +3983,37 @@
       <c r="Z6" s="6"/>
       <c r="AA6" s="6"/>
       <c r="AB6" s="9"/>
-      <c r="AC6" s="76"/>
+      <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
-      <c r="AE6" s="11"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="6"/>
+      <c r="AE6" s="70"/>
+      <c r="AF6" s="64"/>
+      <c r="AG6" s="64"/>
       <c r="AH6" s="6"/>
       <c r="AI6" s="6"/>
       <c r="AJ6" s="9"/>
-      <c r="AK6" s="10"/>
+      <c r="AK6" s="70"/>
       <c r="AL6" s="10"/>
-      <c r="AM6" s="42"/>
-      <c r="AN6" s="11"/>
-    </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AM6" s="70"/>
+      <c r="AN6" s="73"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="64"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="59"/>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="63">
+        <v>41244</v>
+      </c>
+      <c r="AV6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="49">
+      <c r="B7" s="45">
         <v>1</v>
       </c>
       <c r="C7" s="30" t="s">
@@ -3903,25 +4044,38 @@
       <c r="Z7" s="6"/>
       <c r="AA7" s="6"/>
       <c r="AB7" s="9"/>
-      <c r="AC7" s="76"/>
+      <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
-      <c r="AE7" s="11"/>
-      <c r="AF7" s="5"/>
-      <c r="AG7" s="6"/>
+      <c r="AE7" s="70"/>
+      <c r="AF7" s="64"/>
+      <c r="AG7" s="64"/>
       <c r="AH7" s="6"/>
       <c r="AI7" s="6"/>
       <c r="AJ7" s="9"/>
-      <c r="AK7" s="10"/>
+      <c r="AK7" s="70"/>
       <c r="AL7" s="10"/>
-      <c r="AM7" s="42"/>
-      <c r="AN7" s="11"/>
-    </row>
-    <row r="8" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM7" s="70"/>
+      <c r="AN7" s="73"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="59"/>
+      <c r="AT7">
+        <v>2</v>
+      </c>
+      <c r="AU7" s="63">
+        <v>43800</v>
+      </c>
+      <c r="AV7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="52">
-        <v>0.9</v>
+      <c r="B8" s="48">
+        <v>1</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>17</v>
@@ -3947,26 +4101,39 @@
       <c r="V8" s="38"/>
       <c r="W8" s="38"/>
       <c r="X8" s="38"/>
-      <c r="Y8" s="65"/>
+      <c r="Y8" s="50"/>
       <c r="Z8" s="38"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="65"/>
-      <c r="AC8" s="77"/>
-      <c r="AD8" s="67"/>
-      <c r="AE8" s="20"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="22"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="38"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="53"/>
+      <c r="AE8" s="71"/>
+      <c r="AF8" s="65"/>
+      <c r="AG8" s="65"/>
       <c r="AH8" s="22"/>
       <c r="AI8" s="22"/>
       <c r="AJ8" s="18"/>
-      <c r="AK8" s="19"/>
+      <c r="AK8" s="71"/>
       <c r="AL8" s="19"/>
-      <c r="AM8" s="43"/>
-      <c r="AN8" s="20"/>
-    </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="22"/>
+      <c r="AP8" s="65"/>
+      <c r="AQ8" s="22"/>
+      <c r="AR8" s="60"/>
+      <c r="AT8">
+        <v>3</v>
+      </c>
+      <c r="AU8" s="63">
+        <v>42370</v>
+      </c>
+      <c r="AV8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A9" s="35"/>
-      <c r="B9" s="48"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="30" t="s">
         <v>19</v>
       </c>
@@ -3995,24 +4162,37 @@
       <c r="Z9" s="6"/>
       <c r="AA9" s="6"/>
       <c r="AB9" s="9"/>
-      <c r="AC9" s="76"/>
+      <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
-      <c r="AE9" s="11"/>
-      <c r="AF9" s="5"/>
-      <c r="AG9" s="6"/>
+      <c r="AE9" s="70"/>
+      <c r="AF9" s="64"/>
+      <c r="AG9" s="64"/>
       <c r="AH9" s="6"/>
       <c r="AI9" s="6"/>
       <c r="AJ9" s="9"/>
-      <c r="AK9" s="10"/>
+      <c r="AK9" s="70"/>
       <c r="AL9" s="10"/>
-      <c r="AM9" s="42"/>
-      <c r="AN9" s="11"/>
-    </row>
-    <row r="10" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AM9" s="70"/>
+      <c r="AN9" s="73"/>
+      <c r="AO9" s="6"/>
+      <c r="AP9" s="64"/>
+      <c r="AQ9" s="6"/>
+      <c r="AR9" s="59"/>
+      <c r="AT9">
+        <v>4</v>
+      </c>
+      <c r="AU9" s="63">
+        <v>47484</v>
+      </c>
+      <c r="AV9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="49">
+      <c r="B10" s="45">
         <v>1</v>
       </c>
       <c r="C10" s="30" t="s">
@@ -4043,24 +4223,37 @@
       <c r="Z10" s="6"/>
       <c r="AA10" s="6"/>
       <c r="AB10" s="9"/>
-      <c r="AC10" s="76"/>
+      <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
-      <c r="AE10" s="11"/>
-      <c r="AF10" s="5"/>
-      <c r="AG10" s="6"/>
+      <c r="AE10" s="70"/>
+      <c r="AF10" s="64"/>
+      <c r="AG10" s="64"/>
       <c r="AH10" s="6"/>
       <c r="AI10" s="6"/>
       <c r="AJ10" s="9"/>
-      <c r="AK10" s="10"/>
+      <c r="AK10" s="70"/>
       <c r="AL10" s="10"/>
-      <c r="AM10" s="42"/>
-      <c r="AN10" s="11"/>
-    </row>
-    <row r="11" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM10" s="70"/>
+      <c r="AN10" s="73"/>
+      <c r="AO10" s="6"/>
+      <c r="AP10" s="64"/>
+      <c r="AQ10" s="6"/>
+      <c r="AR10" s="59"/>
+      <c r="AT10">
+        <v>5</v>
+      </c>
+      <c r="AU10" s="63">
+        <v>38749</v>
+      </c>
+      <c r="AV10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="52">
+      <c r="B11" s="48">
         <v>1</v>
       </c>
       <c r="C11" s="31" t="s">
@@ -4091,22 +4284,35 @@
       <c r="Z11" s="22"/>
       <c r="AA11" s="22"/>
       <c r="AB11" s="18"/>
-      <c r="AC11" s="78"/>
+      <c r="AC11" s="19"/>
       <c r="AD11" s="19"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="21"/>
-      <c r="AG11" s="22"/>
+      <c r="AE11" s="71"/>
+      <c r="AF11" s="65"/>
+      <c r="AG11" s="65"/>
       <c r="AH11" s="22"/>
       <c r="AI11" s="22"/>
       <c r="AJ11" s="18"/>
-      <c r="AK11" s="19"/>
+      <c r="AK11" s="71"/>
       <c r="AL11" s="19"/>
-      <c r="AM11" s="43"/>
-      <c r="AN11" s="20"/>
-    </row>
-    <row r="12" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AM11" s="71"/>
+      <c r="AN11" s="74"/>
+      <c r="AO11" s="22"/>
+      <c r="AP11" s="65"/>
+      <c r="AQ11" s="22"/>
+      <c r="AR11" s="60"/>
+      <c r="AT11">
+        <v>6</v>
+      </c>
+      <c r="AU11" s="63">
+        <v>43862</v>
+      </c>
+      <c r="AV11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A12" s="35"/>
-      <c r="B12" s="48"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="30" t="s">
         <v>25</v>
       </c>
@@ -4135,24 +4341,32 @@
       <c r="Z12" s="6"/>
       <c r="AA12" s="6"/>
       <c r="AB12" s="9"/>
-      <c r="AC12" s="76"/>
+      <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
-      <c r="AE12" s="11"/>
-      <c r="AF12" s="5"/>
-      <c r="AG12" s="6"/>
+      <c r="AE12" s="70"/>
+      <c r="AF12" s="64"/>
+      <c r="AG12" s="64"/>
       <c r="AH12" s="6"/>
       <c r="AI12" s="6"/>
       <c r="AJ12" s="9"/>
-      <c r="AK12" s="10"/>
+      <c r="AK12" s="70"/>
       <c r="AL12" s="10"/>
-      <c r="AM12" s="42"/>
-      <c r="AN12" s="11"/>
-    </row>
-    <row r="13" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AM12" s="70"/>
+      <c r="AN12" s="73"/>
+      <c r="AO12" s="6"/>
+      <c r="AP12" s="64"/>
+      <c r="AQ12" s="6"/>
+      <c r="AR12" s="59"/>
+      <c r="AU12" s="63">
+        <v>38412</v>
+      </c>
+      <c r="AV12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A13" s="35"/>
-      <c r="B13" s="49">
-        <v>0.3</v>
-      </c>
+      <c r="B13" s="44"/>
       <c r="C13" s="30" t="s">
         <v>36</v>
       </c>
@@ -4181,24 +4395,26 @@
       <c r="Z13" s="6"/>
       <c r="AA13" s="6"/>
       <c r="AB13" s="9"/>
-      <c r="AC13" s="79"/>
-      <c r="AD13" s="44"/>
-      <c r="AE13" s="11"/>
-      <c r="AF13" s="40"/>
-      <c r="AG13" s="6"/>
+      <c r="AC13" s="39"/>
+      <c r="AD13" s="39"/>
+      <c r="AE13" s="79"/>
+      <c r="AF13" s="83"/>
+      <c r="AG13" s="64"/>
       <c r="AH13" s="6"/>
       <c r="AI13" s="6"/>
       <c r="AJ13" s="9"/>
-      <c r="AK13" s="10"/>
+      <c r="AK13" s="70"/>
       <c r="AL13" s="10"/>
-      <c r="AM13" s="42"/>
-      <c r="AN13" s="11"/>
-    </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AM13" s="70"/>
+      <c r="AN13" s="73"/>
+      <c r="AO13" s="6"/>
+      <c r="AP13" s="64"/>
+      <c r="AQ13" s="6"/>
+      <c r="AR13" s="59"/>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A14" s="35"/>
-      <c r="B14" s="49">
-        <v>0.15</v>
-      </c>
+      <c r="B14" s="44"/>
       <c r="C14" s="30" t="s">
         <v>30</v>
       </c>
@@ -4227,24 +4443,31 @@
       <c r="Z14" s="6"/>
       <c r="AA14" s="6"/>
       <c r="AB14" s="9"/>
-      <c r="AC14" s="76"/>
+      <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="39"/>
-      <c r="AG14" s="81"/>
+      <c r="AE14" s="66"/>
+      <c r="AF14" s="84"/>
+      <c r="AG14" s="64"/>
       <c r="AH14" s="6"/>
       <c r="AI14" s="6"/>
       <c r="AJ14" s="9"/>
-      <c r="AK14" s="10"/>
+      <c r="AK14" s="70"/>
       <c r="AL14" s="10"/>
-      <c r="AM14" s="42"/>
-      <c r="AN14" s="11"/>
-    </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AM14" s="70"/>
+      <c r="AN14" s="73"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="64"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="59"/>
+      <c r="AU14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A15" s="35"/>
-      <c r="B15" s="48"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="30" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="10"/>
@@ -4271,24 +4494,31 @@
       <c r="Z15" s="6"/>
       <c r="AA15" s="6"/>
       <c r="AB15" s="9"/>
-      <c r="AC15" s="76"/>
+      <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
-      <c r="AE15" s="11"/>
-      <c r="AF15" s="5"/>
-      <c r="AG15" s="82"/>
-      <c r="AH15" s="44"/>
+      <c r="AE15" s="70"/>
+      <c r="AF15" s="6"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="61"/>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="9"/>
-      <c r="AK15" s="37"/>
+      <c r="AK15" s="79"/>
       <c r="AL15" s="10"/>
-      <c r="AM15" s="42"/>
-      <c r="AN15" s="11"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AM15" s="70"/>
+      <c r="AN15" s="73"/>
+      <c r="AO15" s="6"/>
+      <c r="AP15" s="64"/>
+      <c r="AQ15" s="6"/>
+      <c r="AR15" s="59"/>
+      <c r="AU15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.25">
       <c r="A16" s="35"/>
-      <c r="B16" s="48"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="30" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D16" s="9"/>
       <c r="E16" s="10"/>
@@ -4315,24 +4545,28 @@
       <c r="Z16" s="6"/>
       <c r="AA16" s="6"/>
       <c r="AB16" s="9"/>
-      <c r="AC16" s="76"/>
+      <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
-      <c r="AE16" s="11"/>
-      <c r="AF16" s="5"/>
-      <c r="AG16" s="6"/>
+      <c r="AE16" s="70"/>
+      <c r="AF16" s="64"/>
+      <c r="AG16" s="64"/>
       <c r="AH16" s="6"/>
       <c r="AI16" s="6"/>
       <c r="AJ16" s="9"/>
-      <c r="AK16" s="10"/>
-      <c r="AL16" s="37"/>
-      <c r="AM16" s="42"/>
-      <c r="AN16" s="11"/>
-    </row>
-    <row r="17" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK16" s="70"/>
+      <c r="AL16" s="40"/>
+      <c r="AM16" s="66"/>
+      <c r="AN16" s="75"/>
+      <c r="AO16" s="6"/>
+      <c r="AP16" s="64"/>
+      <c r="AQ16" s="6"/>
+      <c r="AR16" s="59"/>
+    </row>
+    <row r="17" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A17" s="35"/>
-      <c r="B17" s="48"/>
+      <c r="B17" s="44"/>
       <c r="C17" s="30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="10"/>
@@ -4352,67 +4586,79 @@
       <c r="S17" s="9"/>
       <c r="T17" s="10"/>
       <c r="U17" s="10"/>
-      <c r="V17" s="11"/>
+      <c r="V17" s="10"/>
       <c r="W17" s="5"/>
       <c r="X17" s="6"/>
       <c r="Y17" s="6"/>
       <c r="Z17" s="6"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="80"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="9"/>
+      <c r="AC17" s="10"/>
       <c r="AD17" s="10"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="5"/>
-      <c r="AG17" s="6"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="64"/>
+      <c r="AG17" s="64"/>
       <c r="AH17" s="6"/>
       <c r="AI17" s="6"/>
       <c r="AJ17" s="9"/>
-      <c r="AK17" s="10"/>
-      <c r="AL17" s="19"/>
-      <c r="AM17" s="43"/>
-      <c r="AN17" s="20"/>
-    </row>
-    <row r="18" spans="1:41" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="12"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="5"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="10"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="6"/>
-      <c r="Y18" s="6"/>
-      <c r="Z18" s="6"/>
-      <c r="AA18" s="6"/>
-      <c r="AB18" s="9"/>
-      <c r="AC18" s="72"/>
-      <c r="AD18" s="10"/>
-      <c r="AE18" s="10"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="6"/>
-      <c r="AH18" s="6"/>
-      <c r="AI18" s="6"/>
-      <c r="AJ18" s="9"/>
-      <c r="AK18" s="10"/>
-      <c r="AL18" s="10"/>
-      <c r="AM18" s="10"/>
-      <c r="AN18" s="11"/>
-    </row>
-    <row r="19" spans="1:41" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AK17" s="70"/>
+      <c r="AL17" s="62"/>
+      <c r="AM17" s="69"/>
+      <c r="AN17" s="72"/>
+      <c r="AO17" s="61"/>
+      <c r="AP17" s="79"/>
+      <c r="AQ17" s="6"/>
+      <c r="AR17" s="59"/>
+    </row>
+    <row r="18" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="22"/>
+      <c r="Y18" s="22"/>
+      <c r="Z18" s="22"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="71"/>
+      <c r="AF18" s="65"/>
+      <c r="AG18" s="65"/>
+      <c r="AH18" s="22"/>
+      <c r="AI18" s="22"/>
+      <c r="AJ18" s="18"/>
+      <c r="AK18" s="71"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="71"/>
+      <c r="AN18" s="74"/>
+      <c r="AO18" s="22"/>
+      <c r="AP18" s="65"/>
+      <c r="AQ18" s="22"/>
+      <c r="AR18" s="60"/>
+    </row>
+    <row r="19" spans="1:44" hidden="1" x14ac:dyDescent="0.25">
       <c r="C19" s="12"/>
       <c r="D19" s="11"/>
       <c r="E19" s="10"/>
@@ -4439,75 +4685,154 @@
       <c r="Z19" s="6"/>
       <c r="AA19" s="6"/>
       <c r="AB19" s="9"/>
-      <c r="AC19" s="73"/>
+      <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
-      <c r="AE19" s="10"/>
-      <c r="AF19" s="5"/>
-      <c r="AG19" s="6"/>
+      <c r="AE19" s="70"/>
+      <c r="AF19" s="64"/>
+      <c r="AG19" s="64"/>
       <c r="AH19" s="6"/>
       <c r="AI19" s="6"/>
       <c r="AJ19" s="9"/>
-      <c r="AK19" s="10"/>
+      <c r="AK19" s="70"/>
       <c r="AL19" s="10"/>
-      <c r="AM19" s="10"/>
-      <c r="AN19" s="11"/>
-    </row>
-    <row r="20" spans="1:41" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="62" t="s">
+      <c r="AM19" s="70"/>
+      <c r="AN19" s="73"/>
+      <c r="AP19" s="68"/>
+    </row>
+    <row r="20" spans="1:44" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="12"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="5"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="9"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="6"/>
+      <c r="Y20" s="6"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="9"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="70"/>
+      <c r="AF20" s="64"/>
+      <c r="AG20" s="64"/>
+      <c r="AH20" s="6"/>
+      <c r="AI20" s="6"/>
+      <c r="AJ20" s="9"/>
+      <c r="AK20" s="70"/>
+      <c r="AL20" s="10"/>
+      <c r="AM20" s="70"/>
+      <c r="AN20" s="73"/>
+      <c r="AP20" s="68"/>
+    </row>
+    <row r="21" spans="1:44" ht="16.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="23"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
-      <c r="AB20" s="23"/>
-      <c r="AC20" s="71"/>
-      <c r="AD20" s="23"/>
-      <c r="AE20" s="23"/>
-      <c r="AF20" s="23"/>
-      <c r="AG20" s="23"/>
-      <c r="AH20" s="23"/>
-      <c r="AI20" s="25" t="s">
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="23"/>
+      <c r="T21" s="23"/>
+      <c r="U21" s="23"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+      <c r="Y21" s="23"/>
+      <c r="Z21" s="23"/>
+      <c r="AA21" s="23"/>
+      <c r="AB21" s="23"/>
+      <c r="AC21" s="23"/>
+      <c r="AD21" s="23"/>
+      <c r="AE21" s="67"/>
+      <c r="AF21" s="67"/>
+      <c r="AG21" s="67"/>
+      <c r="AH21" s="23"/>
+      <c r="AI21" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="AJ20" s="24"/>
-      <c r="AK20" s="23"/>
-      <c r="AL20" s="23"/>
-      <c r="AM20" s="63" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN20" s="63"/>
-      <c r="AO20" s="63"/>
+      <c r="AJ21" s="24"/>
+      <c r="AK21" s="67"/>
+      <c r="AL21" s="23"/>
+      <c r="AM21" s="68"/>
+      <c r="AN21" s="76"/>
+      <c r="AP21" s="68"/>
+    </row>
+    <row r="22" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AE22" s="68"/>
+      <c r="AF22" s="78">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="80">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="77">
+        <v>2</v>
+      </c>
+      <c r="AI22" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ22" s="24"/>
+      <c r="AK22" s="68"/>
+      <c r="AL22" s="77">
+        <v>3</v>
+      </c>
+      <c r="AM22" s="68"/>
+      <c r="AN22" s="78">
+        <v>4</v>
+      </c>
+      <c r="AO22" s="77">
+        <v>5</v>
+      </c>
+      <c r="AP22" s="68"/>
+      <c r="AQ22" s="81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AE23" s="82"/>
+      <c r="AF23" s="82"/>
+      <c r="AP23" s="82"/>
+    </row>
+    <row r="24" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AF24" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="AM20:AO20"/>
+    <mergeCell ref="O21:R21"/>
     <mergeCell ref="AF1:AI1"/>
     <mergeCell ref="AJ1:AN1"/>
     <mergeCell ref="AB1:AE1"/>
+    <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:R1"/>
@@ -4515,7 +4840,7 @@
     <mergeCell ref="W1:AA1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="AI4:AJ17 O4:R17">
+  <conditionalFormatting sqref="AI4:AJ18 O4:R18">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>TRUE</formula>
     </cfRule>
